--- a/01.設計書/01.テーブル定義書/M1_顧客マスタ.xlsx
+++ b/01.設計書/01.テーブル定義書/M1_顧客マスタ.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MOS\01.設計書\01.テーブル定義書\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="4" r:id="rId1"/>
-    <sheet name="商品マスタ" sheetId="1" r:id="rId2"/>
+    <sheet name="顧客マスタ" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -305,7 +310,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -534,18 +539,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -558,65 +551,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,12 +633,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -675,7 +683,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -708,9 +716,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -743,6 +768,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -933,117 +975,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
+      <c r="A2" s="4">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="7">
         <v>43079</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1056,7 +1098,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1074,286 +1116,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="20" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="13" t="s">
+      <c r="E4" s="27"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="21"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="20" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="22"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="23"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
+      <c r="A9" s="3">
         <f t="shared" ref="A9:A13" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+      <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <v>20</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+      <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
+      <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
+      <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="9" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1443,17 +1485,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G4:H6"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J6"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="D4:F6"/>
     <mergeCell ref="A4:C6"/>
+    <mergeCell ref="G4:H6"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
